--- a/code/outputs/llm_metrics.xlsx
+++ b/code/outputs/llm_metrics.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sentence_uniqueness_ratio</t>
+          <t>logical_block_uniqueness_ratio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
